--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>101900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>101900</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>52400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>52400</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,6 +43434,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>3800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43504,6 +43504,43 @@
         <v>3800</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,76 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,76 @@
         <v>11600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43716,6 +43716,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43823,6 +43823,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43858,6 +43858,78 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43930,6 +43930,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43965,6 +43965,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>170500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88590,6 +88590,41 @@
         <v>170500</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88625,6 +88625,43 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2504" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88662,6 +88662,41 @@
         </is>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88697,6 +88697,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>55900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88732,6 +88732,41 @@
         <v>55900</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>39500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88767,6 +88767,41 @@
         <v>39500</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>86400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88802,6 +88802,41 @@
         <v>86400</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>35100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88837,6 +88837,43 @@
         <v>35100</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88874,6 +88874,41 @@
         </is>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>81800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88909,6 +88909,41 @@
         <v>81800</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88944,6 +88944,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88979,6 +88979,41 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>54500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89014,6 +89014,41 @@
         <v>54500</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89049,6 +89049,43 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8478.xlsx
+++ b/data/8478.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89086,6 +89086,43 @@
         </is>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>HWATAI</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
